--- a/biology/Botanique/Kunzea_bracteolata/Kunzea_bracteolata.xlsx
+++ b/biology/Botanique/Kunzea_bracteolata/Kunzea_bracteolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kunzea bracteolata est une espèce de plantes de la famille des myrtes que l'on trouve au nord de Glen Innes, dans le Nord de la Nouvelle-Galles du Sud et dans le Sud du Queensland. C'est un petit arbuste aux branches étalées, aux petites feuilles elliptiques et qui produit des fleurs blanches fortement parfumées sur les extrémités des branches à la fin du printemps.
 </t>
